--- a/excel_sheet_race.xlsx
+++ b/excel_sheet_race.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anikapuri/6.C35 Visualization &amp; Society/GitHub/A2-Visual-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F1E6A4-60AA-3445-9FEA-C8976E5AFE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EBF607EC-5E19-BF4D-9B6B-04D41016F9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="760" windowWidth="23100" windowHeight="17640" activeTab="1"/>
+    <workbookView xWindow="6520" yWindow="5180" windowWidth="23100" windowHeight="17640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Census + Corp Ownership and Occ" sheetId="1" r:id="rId1"/>
     <sheet name="race" sheetId="4" r:id="rId2"/>
-    <sheet name="owner_rates" sheetId="2" r:id="rId3"/>
-    <sheet name="corporate_owner" sheetId="3" r:id="rId4"/>
+    <sheet name="race_transposed" sheetId="5" r:id="rId3"/>
+    <sheet name="owner_rates" sheetId="2" r:id="rId4"/>
+    <sheet name="corporate_owner" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="69">
   <si>
     <t>Neighborhood</t>
   </si>
@@ -227,6 +228,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Neighborhoods</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1089,7 @@
   <dimension ref="A1:AN442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55023,8 +55027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55511,6 +55515,527 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.51130288948674096</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.0697040634499098E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.25062017399811298</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.127773313301422</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9.4336326473568402E-4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.1529995457880599E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.80559125964010303</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.6992287917737799E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.7480719794344501E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.7519280205655499E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.07112253641817E-4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4.9271636675235703E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.63306434926546695</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.7361887026691502E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.16141113180219299</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.103000206910821</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.2621560107593599E-3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.4380302089799299E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.68203107575644895</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.9922682328451399E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.16995018957698299</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.1444502267489399E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8.17783064456174E-4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.1297301315887302E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.71265690376569002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.1778242677824299E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.6297071129707095E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.10852510460251</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.3682008368200799E-4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.1255230125523002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.26571468570628598</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.1579168416631701E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.59932801343973097</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.6778664426711501E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.7999440011199799E-4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.6599468010639802E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.224329124076241</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.34956748041999802</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.10933702154823199</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.20693013397058699</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.6597703595191099E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.8979221055560601E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.36594993730553099</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.2577903682719497E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.4861375563089202E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.50387776900571202</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.0449078159104599E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.5743277759717601E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.54212493043224796</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.3498794158958996E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.244295444306045</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.6546789282590806E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0600800360427199E-3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.02827763496144E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.225665727528856</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.45960192674725098</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.0509557999333499E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.23935896270713999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.6965070132388101E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.0512284528461899E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.53720862186677099</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.11425924119769799</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7.2783575538866704E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.217521700965571</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.12162293962743E-3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7.5343801814103202E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.628173828125</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.154296875E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.160400390625</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9.3017578125E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.708984375E-3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4.150390625E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6.2473776957287903E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.68293194595955398</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.0558865486280099E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.17114206595619699</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.2656708903247501E-3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.3983385080137604E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.86126793151318803</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.3049514113836201E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.1184636742249002E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.8866265617769598E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6.4784821841739899E-4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4.1647385469689999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.45695229020622102</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.205710202137072</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.46423466957054E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.25090178996801199</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8.1671544272782996E-4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>9.2220785408017401E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.13080775885620599</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.41518987341772201</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.9684910299608401E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.30467170567343599</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.0763136326381899E-3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.0581003551589101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.76849434290687602</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.0324920220481598E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.47775404172271E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.102513384497719</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.00218899174513E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.0373183532452497E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.77343609965943705</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.8678974726653501E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8.6395411364043703E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5.6640975085140703E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.5848718408316901E-4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.20093206667862E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.56575766860722398</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.100738773703742</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.15922786232254099</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.12879174752323599</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.2256153610458601E-3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6.5025703877710801E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.64023361453601602</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.38676184295912E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.18689162881245899</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.9558728098637302E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.1680726800778699E-3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.1031797534068801E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.66278001330756298</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.10493964069579501</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7.76591362757834E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.113019232597193</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8.2380152720129302E-4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6.9706283070878599E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
@@ -57021,7 +57546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
